--- a/Test Case/Sangeetha/Test Case- Out Patient.xlsx
+++ b/Test Case/Sangeetha/Test Case- Out Patient.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware_git\CentralRepository-Mediware\Test Case\Sangeetha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DA08F7-ABAD-400D-82E7-CEE51AF7152C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB73CBA-70B2-442F-B92F-AAD0DF8A2F02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Poonima John</t>
+  </si>
+  <si>
+    <t>Semin Das</t>
   </si>
 </sst>
 </file>
@@ -552,12 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,6 +578,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,20 +903,20 @@
   <dimension ref="A1:S722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="27.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="11" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="11" customWidth="1"/>
     <col min="10" max="10" width="15" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.5703125" style="5" customWidth="1"/>
@@ -922,7 +925,7 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -962,38 +965,38 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="18"/>
+      <c r="R1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" spans="1:19" s="15" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1012,25 +1015,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1049,23 +1052,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1082,13 +1085,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="195" x14ac:dyDescent="0.25">
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="L5" s="4"/>
@@ -1106,141 +1109,141 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="E12" s="13">
+      <c r="A12" s="15"/>
+      <c r="E12" s="11">
         <v>6</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="11" t="s">
         <v>54</v>
       </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>56</v>
       </c>
       <c r="L17" s="4"/>
@@ -1255,79 +1258,79 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>59</v>
       </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>47</v>
       </c>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <v>4</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>49</v>
       </c>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <v>5</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>61</v>
       </c>
       <c r="L26" s="4"/>
@@ -1336,143 +1339,143 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>64</v>
       </c>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>47</v>
       </c>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>4</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="11" t="s">
         <v>68</v>
       </c>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="16"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>72</v>
       </c>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <v>2</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="E38" s="13">
+      <c r="E38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="11" t="s">
         <v>73</v>
       </c>
       <c r="L38" s="4"/>
@@ -1481,34 +1484,34 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -1516,136 +1519,136 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="11" t="s">
         <v>77</v>
       </c>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="11" t="s">
         <v>79</v>
       </c>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E46" s="13">
+      <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="E47" s="13">
+      <c r="E47" s="11">
         <v>2</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="11" t="s">
         <v>85</v>
       </c>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>81</v>
       </c>
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E49" s="13">
+      <c r="E49" s="11">
         <v>1</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="E50" s="13">
+      <c r="E50" s="11">
         <v>2</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="11" t="s">
         <v>85</v>
       </c>
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>81</v>
       </c>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E52" s="13">
+      <c r="E52" s="11">
         <v>1</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E53" s="13">
+      <c r="E53" s="11">
         <v>2</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L53" s="4"/>
@@ -1654,40 +1657,43 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="11" t="s">
         <v>81</v>
       </c>
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E56" s="13">
+      <c r="E56" s="11">
         <v>1</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E57" s="13">
+      <c r="E57" s="11">
         <v>2</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L57" s="4"/>
